--- a/output.xlsx
+++ b/output.xlsx
@@ -14,33 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>Chicago</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Kurtosis (Sku)</t>
+  </si>
+  <si>
+    <t>Maximum Peak Height (Sp)</t>
+  </si>
+  <si>
+    <t>Maximum Pit Height (Sv)</t>
+  </si>
+  <si>
+    <t>Auto-Correlation Length (Sal)</t>
+  </si>
+  <si>
+    <t>Arithmetical Mean Height (Sa)</t>
+  </si>
+  <si>
+    <t>Maximum Height (Sz)</t>
+  </si>
+  <si>
+    <t>Skewness (Ssk)</t>
+  </si>
+  <si>
+    <t>Root Mean Square Height (Sq)</t>
+  </si>
+  <si>
+    <t>image_name</t>
+  </si>
+  <si>
+    <t>aniso_dir_030_02.tiff</t>
   </si>
 </sst>
 </file>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,38 +417,52 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0.006364826866159109</v>
       </c>
       <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.758331298828125</v>
+      </c>
+      <c r="E2">
+        <v>131.6215209960938</v>
+      </c>
+      <c r="F2">
+        <v>255</v>
+      </c>
+      <c r="G2">
+        <v>2.022976485545667</v>
+      </c>
+      <c r="H2">
+        <v>10.0426884259302</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
